--- a/maccount.xlsx
+++ b/maccount.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -157,22 +157,16 @@
     <x:t>Click on the Account tab,  and select the existing  Account to delete</x:t>
   </x:si>
   <x:si>
-    <x:t>Reworked</x:t>
-  </x:si>
-  <x:si>
     <x:t>Click on to the Delete to Delete the Account</x:t>
   </x:si>
   <x:si>
     <x:t>User should be able to validate that a pop-up is displayed asking for confirmation to delete the Account</x:t>
   </x:si>
   <x:si>
-    <x:t>Click on Confirm/OK to delete the  Account</x:t>
+    <x:t>Click on Confirm / OK to delete the  Account</x:t>
   </x:si>
   <x:si>
     <x:t>User should be able to validate the Account is deleted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Modified Step</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -869,7 +863,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J12" s="0" t="s"/>
       <x:c r="K12" s="0" t="s"/>
@@ -884,10 +878,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
         <x:v>48</x:v>
-      </x:c>
-      <x:c r="H13" s="0" t="s">
-        <x:v>49</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s"/>
       <x:c r="J13" s="0" t="s"/>
@@ -903,16 +897,14 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
         <x:v>50</x:v>
-      </x:c>
-      <x:c r="H14" s="0" t="s">
-        <x:v>51</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s"/>
       <x:c r="J14" s="0" t="s"/>
-      <x:c r="K14" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
+      <x:c r="K14" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/maccount.xlsx
+++ b/maccount.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -109,27 +109,6 @@
     <x:t>TestScenario_2</x:t>
   </x:si>
   <x:si>
-    <x:t>TestScenario_2.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>View Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Click on the Account tab,  and select a Account </x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Account Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Account name to View the Details</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to view the Account Details</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_3</x:t>
-  </x:si>
-  <x:si>
     <x:t>TestScenario_3.TestCase_1</x:t>
   </x:si>
   <x:si>
@@ -143,30 +122,6 @@
   </x:si>
   <x:si>
     <x:t>User should be able to validate that the Account is edited</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_4.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Delete Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Account tab,  and select the existing  Account to delete</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on to the Delete to Delete the Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that a pop-up is displayed asking for confirmation to delete the Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Confirm / OK to delete the  Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate the Account is deleted</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -250,8 +205,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K14" totalsRowShown="0">
-  <x:autoFilter ref="A1:K14"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K25" totalsRowShown="0">
+  <x:autoFilter ref="A1:K25"/>
   <x:tableColumns count="11">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -557,7 +512,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:K14"/>
+  <x:dimension ref="A1:K25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -565,12 +520,12 @@
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="16.550625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="14.700625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="122.270625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="61.840625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="93.550625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="59.700625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="57.840625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="18.980625" style="0" customWidth="1"/>
@@ -735,46 +690,40 @@
       <x:c r="B7" s="0" t="s"/>
       <x:c r="C7" s="0" t="s"/>
       <x:c r="D7" s="0" t="s"/>
-      <x:c r="E7" s="0" t="s"/>
+      <x:c r="E7" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
       <x:c r="F7" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s"/>
       <x:c r="J7" s="0" t="s"/>
       <x:c r="K7" s="0" t="s"/>
     </x:row>
     <x:row r="8" spans="1:11">
-      <x:c r="A8" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s"/>
+      <x:c r="A8" s="0" t="s"/>
+      <x:c r="B8" s="0" t="s"/>
+      <x:c r="C8" s="0" t="s"/>
+      <x:c r="D8" s="0" t="s"/>
+      <x:c r="E8" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="I8" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s"/>
       <x:c r="J8" s="0" t="s"/>
       <x:c r="K8" s="0" t="s"/>
     </x:row>
@@ -783,38 +732,42 @@
       <x:c r="B9" s="0" t="s"/>
       <x:c r="C9" s="0" t="s"/>
       <x:c r="D9" s="0" t="s"/>
-      <x:c r="E9" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
+      <x:c r="E9" s="0" t="s"/>
       <x:c r="F9" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s"/>
       <x:c r="J9" s="0" t="s"/>
       <x:c r="K9" s="0" t="s"/>
     </x:row>
     <x:row r="10" spans="1:11">
-      <x:c r="A10" s="0" t="s"/>
-      <x:c r="B10" s="0" t="s"/>
-      <x:c r="C10" s="0" t="s"/>
-      <x:c r="D10" s="0" t="s"/>
-      <x:c r="E10" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
+      <x:c r="A10" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s"/>
       <x:c r="F10" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s"/>
       <x:c r="J10" s="0" t="s"/>
@@ -825,46 +778,40 @@
       <x:c r="B11" s="0" t="s"/>
       <x:c r="C11" s="0" t="s"/>
       <x:c r="D11" s="0" t="s"/>
-      <x:c r="E11" s="0" t="s"/>
+      <x:c r="E11" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s"/>
       <x:c r="J11" s="0" t="s"/>
       <x:c r="K11" s="0" t="s"/>
     </x:row>
     <x:row r="12" spans="1:11">
-      <x:c r="A12" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s"/>
+      <x:c r="A12" s="0" t="s"/>
+      <x:c r="B12" s="0" t="s"/>
+      <x:c r="C12" s="0" t="s"/>
+      <x:c r="D12" s="0" t="s"/>
+      <x:c r="E12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="I12" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s"/>
       <x:c r="J12" s="0" t="s"/>
       <x:c r="K12" s="0" t="s"/>
     </x:row>
@@ -875,36 +822,281 @@
       <x:c r="D13" s="0" t="s"/>
       <x:c r="E13" s="0" t="s"/>
       <x:c r="F13" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s"/>
       <x:c r="J13" s="0" t="s"/>
       <x:c r="K13" s="0" t="s"/>
     </x:row>
     <x:row r="14" spans="1:11">
-      <x:c r="A14" s="0" t="s"/>
-      <x:c r="B14" s="0" t="s"/>
-      <x:c r="C14" s="0" t="s"/>
-      <x:c r="D14" s="0" t="s"/>
+      <x:c r="A14" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
       <x:c r="E14" s="0" t="s"/>
       <x:c r="F14" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H14" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s"/>
       <x:c r="J14" s="0" t="s"/>
       <x:c r="K14" s="0" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:11">
+      <x:c r="A15" s="0" t="s"/>
+      <x:c r="B15" s="0" t="s"/>
+      <x:c r="C15" s="0" t="s"/>
+      <x:c r="D15" s="0" t="s"/>
+      <x:c r="E15" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s"/>
+      <x:c r="J15" s="0" t="s"/>
+      <x:c r="K15" s="0" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:11">
+      <x:c r="A16" s="0" t="s"/>
+      <x:c r="B16" s="0" t="s"/>
+      <x:c r="C16" s="0" t="s"/>
+      <x:c r="D16" s="0" t="s"/>
+      <x:c r="E16" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s"/>
+      <x:c r="J16" s="0" t="s"/>
+      <x:c r="K16" s="0" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:11">
+      <x:c r="A17" s="0" t="s"/>
+      <x:c r="B17" s="0" t="s"/>
+      <x:c r="C17" s="0" t="s"/>
+      <x:c r="D17" s="0" t="s"/>
+      <x:c r="E17" s="0" t="s"/>
+      <x:c r="F17" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s"/>
+      <x:c r="J17" s="0" t="s"/>
+      <x:c r="K17" s="0" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:11">
+      <x:c r="A18" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s"/>
+      <x:c r="F18" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="s"/>
+      <x:c r="J18" s="0" t="s"/>
+      <x:c r="K18" s="0" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:11">
+      <x:c r="A19" s="0" t="s"/>
+      <x:c r="B19" s="0" t="s"/>
+      <x:c r="C19" s="0" t="s"/>
+      <x:c r="D19" s="0" t="s"/>
+      <x:c r="E19" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="s"/>
+      <x:c r="J19" s="0" t="s"/>
+      <x:c r="K19" s="0" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:11">
+      <x:c r="A20" s="0" t="s"/>
+      <x:c r="B20" s="0" t="s"/>
+      <x:c r="C20" s="0" t="s"/>
+      <x:c r="D20" s="0" t="s"/>
+      <x:c r="E20" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I20" s="0" t="s"/>
+      <x:c r="J20" s="0" t="s"/>
+      <x:c r="K20" s="0" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:11">
+      <x:c r="A21" s="0" t="s"/>
+      <x:c r="B21" s="0" t="s"/>
+      <x:c r="C21" s="0" t="s"/>
+      <x:c r="D21" s="0" t="s"/>
+      <x:c r="E21" s="0" t="s"/>
+      <x:c r="F21" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I21" s="0" t="s"/>
+      <x:c r="J21" s="0" t="s"/>
+      <x:c r="K21" s="0" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:11">
+      <x:c r="A22" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s"/>
+      <x:c r="F22" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="I22" s="0" t="s"/>
+      <x:c r="J22" s="0" t="s"/>
+      <x:c r="K22" s="0" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:11">
+      <x:c r="A23" s="0" t="s"/>
+      <x:c r="B23" s="0" t="s"/>
+      <x:c r="C23" s="0" t="s"/>
+      <x:c r="D23" s="0" t="s"/>
+      <x:c r="E23" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I23" s="0" t="s"/>
+      <x:c r="J23" s="0" t="s"/>
+      <x:c r="K23" s="0" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:11">
+      <x:c r="A24" s="0" t="s"/>
+      <x:c r="B24" s="0" t="s"/>
+      <x:c r="C24" s="0" t="s"/>
+      <x:c r="D24" s="0" t="s"/>
+      <x:c r="E24" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I24" s="0" t="s"/>
+      <x:c r="J24" s="0" t="s"/>
+      <x:c r="K24" s="0" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:11">
+      <x:c r="A25" s="0" t="s"/>
+      <x:c r="B25" s="0" t="s"/>
+      <x:c r="C25" s="0" t="s"/>
+      <x:c r="D25" s="0" t="s"/>
+      <x:c r="E25" s="0" t="s"/>
+      <x:c r="F25" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="I25" s="0" t="s"/>
+      <x:c r="J25" s="0" t="s"/>
+      <x:c r="K25" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/maccount.xlsx
+++ b/maccount.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -104,30 +104,6 @@
   </x:si>
   <x:si>
     <x:t>User should be able to validate that the Account is edited</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Account tab, and click on New button</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the New  Account Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rejected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that a New Account is created</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_2.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_3.TestCase_1</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -211,8 +187,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K21" totalsRowShown="0">
-  <x:autoFilter ref="A1:K21"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K5" totalsRowShown="0">
+  <x:autoFilter ref="A1:K5"/>
   <x:tableColumns count="11">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -518,7 +494,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:K21"/>
+  <x:dimension ref="A1:K5"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -526,7 +502,7 @@
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="14.700625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="12.980625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="122.270625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
@@ -662,366 +638,6 @@
       <x:c r="J5" s="0" t="s"/>
       <x:c r="K5" s="0" t="s"/>
     </x:row>
-    <x:row r="6" spans="1:11">
-      <x:c r="A6" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s"/>
-      <x:c r="F6" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="I6" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="J6" s="0" t="s"/>
-      <x:c r="K6" s="0" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:11">
-      <x:c r="A7" s="0" t="s"/>
-      <x:c r="B7" s="0" t="s"/>
-      <x:c r="C7" s="0" t="s"/>
-      <x:c r="D7" s="0" t="s"/>
-      <x:c r="E7" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="I7" s="0" t="s"/>
-      <x:c r="J7" s="0" t="s"/>
-      <x:c r="K7" s="0" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:11">
-      <x:c r="A8" s="0" t="s"/>
-      <x:c r="B8" s="0" t="s"/>
-      <x:c r="C8" s="0" t="s"/>
-      <x:c r="D8" s="0" t="s"/>
-      <x:c r="E8" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G8" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H8" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="I8" s="0" t="s"/>
-      <x:c r="J8" s="0" t="s"/>
-      <x:c r="K8" s="0" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:11">
-      <x:c r="A9" s="0" t="s"/>
-      <x:c r="B9" s="0" t="s"/>
-      <x:c r="C9" s="0" t="s"/>
-      <x:c r="D9" s="0" t="s"/>
-      <x:c r="E9" s="0" t="s"/>
-      <x:c r="F9" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G9" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="H9" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="I9" s="0" t="s"/>
-      <x:c r="J9" s="0" t="s"/>
-      <x:c r="K9" s="0" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:11">
-      <x:c r="A10" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s"/>
-      <x:c r="F10" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G10" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="H10" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="I10" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="J10" s="0" t="s"/>
-      <x:c r="K10" s="0" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:11">
-      <x:c r="A11" s="0" t="s"/>
-      <x:c r="B11" s="0" t="s"/>
-      <x:c r="C11" s="0" t="s"/>
-      <x:c r="D11" s="0" t="s"/>
-      <x:c r="E11" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="F11" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G11" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="H11" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="I11" s="0" t="s"/>
-      <x:c r="J11" s="0" t="s"/>
-      <x:c r="K11" s="0" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:11">
-      <x:c r="A12" s="0" t="s"/>
-      <x:c r="B12" s="0" t="s"/>
-      <x:c r="C12" s="0" t="s"/>
-      <x:c r="D12" s="0" t="s"/>
-      <x:c r="E12" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F12" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G12" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H12" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="I12" s="0" t="s"/>
-      <x:c r="J12" s="0" t="s"/>
-      <x:c r="K12" s="0" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:11">
-      <x:c r="A13" s="0" t="s"/>
-      <x:c r="B13" s="0" t="s"/>
-      <x:c r="C13" s="0" t="s"/>
-      <x:c r="D13" s="0" t="s"/>
-      <x:c r="E13" s="0" t="s"/>
-      <x:c r="F13" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G13" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="H13" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="I13" s="0" t="s"/>
-      <x:c r="J13" s="0" t="s"/>
-      <x:c r="K13" s="0" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:11">
-      <x:c r="A14" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E14" s="0" t="s"/>
-      <x:c r="F14" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G14" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="H14" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="I14" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="J14" s="0" t="s"/>
-      <x:c r="K14" s="0" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:11">
-      <x:c r="A15" s="0" t="s"/>
-      <x:c r="B15" s="0" t="s"/>
-      <x:c r="C15" s="0" t="s"/>
-      <x:c r="D15" s="0" t="s"/>
-      <x:c r="E15" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="F15" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G15" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="H15" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="I15" s="0" t="s"/>
-      <x:c r="J15" s="0" t="s"/>
-      <x:c r="K15" s="0" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:11">
-      <x:c r="A16" s="0" t="s"/>
-      <x:c r="B16" s="0" t="s"/>
-      <x:c r="C16" s="0" t="s"/>
-      <x:c r="D16" s="0" t="s"/>
-      <x:c r="E16" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F16" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G16" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H16" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="I16" s="0" t="s"/>
-      <x:c r="J16" s="0" t="s"/>
-      <x:c r="K16" s="0" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:11">
-      <x:c r="A17" s="0" t="s"/>
-      <x:c r="B17" s="0" t="s"/>
-      <x:c r="C17" s="0" t="s"/>
-      <x:c r="D17" s="0" t="s"/>
-      <x:c r="E17" s="0" t="s"/>
-      <x:c r="F17" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G17" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="H17" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="I17" s="0" t="s"/>
-      <x:c r="J17" s="0" t="s"/>
-      <x:c r="K17" s="0" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:11">
-      <x:c r="A18" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B18" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C18" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D18" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E18" s="0" t="s"/>
-      <x:c r="F18" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G18" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="H18" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="I18" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="J18" s="0" t="s"/>
-      <x:c r="K18" s="0" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:11">
-      <x:c r="A19" s="0" t="s"/>
-      <x:c r="B19" s="0" t="s"/>
-      <x:c r="C19" s="0" t="s"/>
-      <x:c r="D19" s="0" t="s"/>
-      <x:c r="E19" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="F19" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G19" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="H19" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="I19" s="0" t="s"/>
-      <x:c r="J19" s="0" t="s"/>
-      <x:c r="K19" s="0" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:11">
-      <x:c r="A20" s="0" t="s"/>
-      <x:c r="B20" s="0" t="s"/>
-      <x:c r="C20" s="0" t="s"/>
-      <x:c r="D20" s="0" t="s"/>
-      <x:c r="E20" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F20" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G20" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H20" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="I20" s="0" t="s"/>
-      <x:c r="J20" s="0" t="s"/>
-      <x:c r="K20" s="0" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:11">
-      <x:c r="A21" s="0" t="s"/>
-      <x:c r="B21" s="0" t="s"/>
-      <x:c r="C21" s="0" t="s"/>
-      <x:c r="D21" s="0" t="s"/>
-      <x:c r="E21" s="0" t="s"/>
-      <x:c r="F21" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G21" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="H21" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="I21" s="0" t="s"/>
-      <x:c r="J21" s="0" t="s"/>
-      <x:c r="K21" s="0" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
